--- a/ig/ch-emed/ValueSet-UnitCode.xlsx
+++ b/ig/ch-emed/ValueSet-UnitCode.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from UCUM" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from UCUM" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="216">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T12:57:16+01:00</t>
+    <t>2023-06-29T15:03:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,6 +106,267 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Bq</t>
+  </si>
+  <si>
+    <t>Becquerel</t>
+  </si>
+  <si>
+    <t>kBq</t>
+  </si>
+  <si>
+    <t>kiloBecquerel</t>
+  </si>
+  <si>
+    <t>MBq</t>
+  </si>
+  <si>
+    <t>megaBecquerel</t>
+  </si>
+  <si>
+    <t>GBq</t>
+  </si>
+  <si>
+    <t>gigaBecquerel</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>nanogram</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>microgram</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>milligram</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>kilocalorie</t>
+  </si>
+  <si>
+    <t>kJ</t>
+  </si>
+  <si>
+    <t>kilojoule</t>
+  </si>
+  <si>
+    <t>meq</t>
+  </si>
+  <si>
+    <t>milliequivalent</t>
+  </si>
+  <si>
+    <t>umol</t>
+  </si>
+  <si>
+    <t>micromole</t>
+  </si>
+  <si>
+    <t>mmol</t>
+  </si>
+  <si>
+    <t>millimole</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>nL</t>
+  </si>
+  <si>
+    <t>nanoliter</t>
+  </si>
+  <si>
+    <t>uL</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>milliliter</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>mm2</t>
+  </si>
+  <si>
+    <t>square millimeter</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>square centimeter</t>
+  </si>
+  <si>
+    <t>cm3</t>
+  </si>
+  <si>
+    <t>cubic centimeter</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>{Dose}</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>[tbs_m]</t>
+  </si>
+  <si>
+    <t>tablespoon - metric</t>
+  </si>
+  <si>
+    <t>10*6.{Unit}</t>
+  </si>
+  <si>
+    <t>(the number ten for arbitrary powers ^ 6) * Unit</t>
+  </si>
+  <si>
+    <t>10*6.[iU]</t>
+  </si>
+  <si>
+    <t>MillionInternationalUnit</t>
+  </si>
+  <si>
+    <t>[ppm]</t>
+  </si>
+  <si>
+    <t>Parts Per Million</t>
+  </si>
+  <si>
+    <t>{Package}</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>{Piece}</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>[tsp_m]</t>
+  </si>
+  <si>
+    <t>teaspoon - metric</t>
+  </si>
+  <si>
+    <t>10*3.{Unit}</t>
+  </si>
+  <si>
+    <t>Thousand Per * Unit</t>
+  </si>
+  <si>
+    <t>{Unit}</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>[iU]</t>
+  </si>
+  <si>
+    <t>international unit</t>
+  </si>
+  <si>
+    <t>[CFU]</t>
+  </si>
+  <si>
+    <t>Colony Forming Units</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
     <t>732981002</t>
   </si>
   <si>
@@ -400,268 +661,7 @@
     <t>Vial (unit of presentation)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>Bq</t>
-  </si>
-  <si>
-    <t>Becquerel</t>
-  </si>
-  <si>
-    <t>kBq</t>
-  </si>
-  <si>
-    <t>kiloBecquerel</t>
-  </si>
-  <si>
-    <t>MBq</t>
-  </si>
-  <si>
-    <t>megaBecquerel</t>
-  </si>
-  <si>
-    <t>GBq</t>
-  </si>
-  <si>
-    <t>gigaBecquerel</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>nanogram</t>
-  </si>
-  <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>microgram</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>milligram</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>gram</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>kcal</t>
-  </si>
-  <si>
-    <t>kilocalorie</t>
-  </si>
-  <si>
-    <t>kJ</t>
-  </si>
-  <si>
-    <t>kilojoule</t>
-  </si>
-  <si>
-    <t>meq</t>
-  </si>
-  <si>
-    <t>milliequivalent</t>
-  </si>
-  <si>
-    <t>umol</t>
-  </si>
-  <si>
-    <t>micromole</t>
-  </si>
-  <si>
-    <t>mmol</t>
-  </si>
-  <si>
-    <t>millimole</t>
-  </si>
-  <si>
-    <t>mol</t>
-  </si>
-  <si>
-    <t>mole</t>
-  </si>
-  <si>
-    <t>nL</t>
-  </si>
-  <si>
-    <t>nanoliter</t>
-  </si>
-  <si>
-    <t>uL</t>
-  </si>
-  <si>
-    <t>microliter</t>
-  </si>
-  <si>
-    <t>mL</t>
-  </si>
-  <si>
-    <t>milliliter</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>liter</t>
-  </si>
-  <si>
-    <t>mm2</t>
-  </si>
-  <si>
-    <t>square millimeter</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>centimeter</t>
-  </si>
-  <si>
-    <t>cm2</t>
-  </si>
-  <si>
-    <t>square centimeter</t>
-  </si>
-  <si>
-    <t>cm3</t>
-  </si>
-  <si>
-    <t>cubic centimeter</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>Minute</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>{Dose}</t>
-  </si>
-  <si>
-    <t>Dose</t>
-  </si>
-  <si>
-    <t>[tbs_m]</t>
-  </si>
-  <si>
-    <t>tablespoon - metric</t>
-  </si>
-  <si>
-    <t>10*6.{Unit}</t>
-  </si>
-  <si>
-    <t>(the number ten for arbitrary powers ^ 6) * Unit</t>
-  </si>
-  <si>
-    <t>10*6.[iU]</t>
-  </si>
-  <si>
-    <t>MillionInternationalUnit</t>
-  </si>
-  <si>
-    <t>[ppm]</t>
-  </si>
-  <si>
-    <t>Parts Per Million</t>
-  </si>
-  <si>
-    <t>{Package}</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>{Piece}</t>
-  </si>
-  <si>
-    <t>Piece</t>
-  </si>
-  <si>
-    <t>[tsp_m]</t>
-  </si>
-  <si>
-    <t>teaspoon - metric</t>
-  </si>
-  <si>
-    <t>10*3.{Unit}</t>
-  </si>
-  <si>
-    <t>Thousand Per * Unit</t>
-  </si>
-  <si>
-    <t>{Unit}</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>[iU]</t>
-  </si>
-  <si>
-    <t>international unit</t>
-  </si>
-  <si>
-    <t>[CFU]</t>
-  </si>
-  <si>
-    <t>Colony Forming Units</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
   </si>
 </sst>
 </file>
@@ -783,10 +783,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -795,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -895,39 +895,47 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B17" t="s" s="2">
         <v>28</v>
       </c>
     </row>
@@ -937,6 +945,383 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -958,786 +1343,409 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>47</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>49</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>51</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>61</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>89</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>95</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>99</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>107</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>109</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>111</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>113</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>115</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>119</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>121</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>123</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>125</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>127</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B45" t="s" s="2">
         <v>215</v>
       </c>
     </row>

--- a/ig/ch-emed/ValueSet-UnitCode.xlsx
+++ b/ig/ch-emed/ValueSet-UnitCode.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:44:04+01:00</t>
+    <t>2023-12-28T10:07:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
